--- a/medicine/Pharmacie/Classement_des_antibiotiques/Classement_des_antibiotiques.xlsx
+++ b/medicine/Pharmacie/Classement_des_antibiotiques/Classement_des_antibiotiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cette liste répertorie les antibiotiques couramment employés en médecine humaine en France, classés par groupe de structure chimique apparentée.
@@ -514,57 +526,474 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Pénicillines
-Pénicillines G et V
-Pénicilline G
+          <t>Pénicillines</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Pénicillines G et V</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pénicilline G
 Bénéthamine pénicillineG
 Benzathine pénicilline G
-PénicillineV
-Pénicillines A
-Amoxicilline
+PénicillineV</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Béta-lactamines</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pénicillines</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Pénicillines A</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Amoxicilline
 Ampicilline
 Pivampicilline
-Becampicilline
-Pénicillines M
-Oxacilline
-Cloxacilline
-Uréidopénicillines
-Mezlocilline
-Pipéracilline
-Carboxypénicillines
-Ticarcilline
-Témocilline
-Amidinopénicillines
-Mécillinam
-Pivmécillinam
-Pénicillines associées à un inhibiteur de bêta-Lactamase
-Acide clavulanique+Amoxicilline
+Becampicilline</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Béta-lactamines</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pénicillines</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pénicillines M</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Oxacilline
+Cloxacilline</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Béta-lactamines</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pénicillines</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Uréidopénicillines</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mezlocilline
+Pipéracilline</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Béta-lactamines</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pénicillines</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Carboxypénicillines</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ticarcilline
+Témocilline</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Béta-lactamines</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pénicillines</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Amidinopénicillines</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Mécillinam
+Pivmécillinam</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Béta-lactamines</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pénicillines</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pénicillines associées à un inhibiteur de bêta-Lactamase</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Acide clavulanique+Amoxicilline
 Acide clavulanique+ ticarcilline
 Sulbactam+Ampicilline
-Tazobactam+pipéracilline
-Monobactame
-Aztréonam
-Carbapénème
-Imipénème+cilastatine
+Tazobactam+pipéracilline</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Béta-lactamines</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Monobactame</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Aztréonam</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Béta-lactamines</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Carbapénème</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Imipénème+cilastatine
 Méropénème
 Ertapénème
-Doripénème
-Céphalosporine
-Céphalosporine de première génération
-Céfaclor
+Doripénème</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Béta-lactamines</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Céphalosporine</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Céphalosporine de première génération</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Céfaclor
 Céfadroxil
 Céfalexine
 Céfalotine
 Céfapirine
 Céfatrizine
 Céfazoline
-Céfadrine
-Céphalosporine de deuxième génération
-Céfamandole
+Céfadrine</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Béta-lactamines</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Céphalosporine</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Céphalosporine de deuxième génération</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Céfamandole
 Cefuroxime
-Céfuroxime axétil
-Céphalosporine de troisième génération
-Céfixime
+Céfuroxime axétil</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Béta-lactamines</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Céphalosporine</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Céphalosporine de troisième génération</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Céfixime
 Céfopérazone
 Céfotaxime
 Céfotiam
@@ -575,71 +1004,151 @@
 Ceftazidime
 Ceftizoxime
 Ceftriaxone
-Céfépime
-Céphalosporine de quatrième génération
-Céfépime
-Céphalosporine de cinquième génération
-Ceftaroline
+Céfépime</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Béta-lactamines</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Céphalosporine</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Céphalosporine de quatrième génération</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Céfépime</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Béta-lactamines</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Céphalosporine</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Céphalosporine de cinquième génération</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Ceftaroline
 Ceftobiprole</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classement_des_antibiotiques</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Céfamycine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Céfotétan
 Céfoxitine</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classement_des_antibiotiques</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Aminosides</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Amikacine
 Gentamicine
@@ -650,31 +1159,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Classement_des_antibiotiques</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Tétracyclines</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Doxycycline
 Lymécycline
@@ -684,35 +1195,43 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Classement_des_antibiotiques</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Macrolides et apparentés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Macrolides vrais
-Macrolides seuls
-Clarithromycine
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Macrolides vrais</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Macrolides seuls</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Clarithromycine
 Dirithromycine
 Erythromycine
 Spiramycine
@@ -720,77 +1239,221 @@
 Azithromycine
 Roxithromycine
 Midécamycine
-Dirithromycine
-Macrolide associé
-Erythromycine+ sulfafurazole
-Spiramycine+métronidazole
-Synergistines
-Pristinamycine
-Virginiamycine
-Lincosamides
-Clindamycine
-Lincomycine
-Ketolides
-Télithromycine</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Classement_des_antibiotiques</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+Dirithromycine</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Macrolides et apparentés</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Macrolides vrais</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Macrolide associé</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Erythromycine+ sulfafurazole
+Spiramycine+métronidazole</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Macrolides et apparentés</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Synergistines</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Pristinamycine
+Virginiamycine</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Macrolides et apparentés</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Lincosamides</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Clindamycine
+Lincomycine</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Macrolides et apparentés</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Ketolides</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Télithromycine</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Phénicolés</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Thiamphénicol
 Chloramphénicol</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Classement_des_antibiotiques</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Rifamycines</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Rifamycine
 Rifabutine
@@ -798,140 +1461,264 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Classement_des_antibiotiques</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Quinolones</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Quinolones de première génération
-Acide nalidixique
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Quinolones de première génération</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Acide nalidixique
 Acide pipémidique
-Fluméquine
-Quinolones de deuxième génération (Fluoroquinolones)
-Fluoroquinolones urinaires
-Enoxacine
+Fluméquine</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Quinolones</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Quinolones de deuxième génération (Fluoroquinolones)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Fluoroquinolones urinaires</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Enoxacine
 Norfloxacine
 Loméfloxacine
-Rosoxacine
-Fluoroquinolones systémiques
-Ciprofloxacine
+Rosoxacine</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Quinolones</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Quinolones de deuxième génération (Fluoroquinolones)</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Fluoroquinolones systémiques</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Ciprofloxacine
 Ofloxacine
 Péfloxacine
-Sparfloxacine
-Fluoroquinolones anti-pneumococciques
-Lévofloxacine
+Sparfloxacine</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Quinolones</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Quinolones de deuxième génération (Fluoroquinolones)</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Fluoroquinolones anti-pneumococciques</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Lévofloxacine
 Moxifloxacine</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Classement_des_antibiotiques</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>Polypeptides</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
         <is>
           <t>Colistine
 Colistiméthate sodique</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Classement_des_antibiotiques</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>Glycopeptides</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
         <is>
           <t>Teicoplanine
 Vancomycine</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Classement_des_antibiotiques</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>Sulfamides antibactériens</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
         <is>
           <t>Sulfadiazine
 Sulfaméthizole
@@ -939,99 +1726,142 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Classement_des_antibiotiques</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>Dérivé nitrés</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Nitrofuranes
-Nitrofurantoïne
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Nitrofuranes</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Nitrofurantoïne
 Nifuroxazide
-Nifurzide
-Nitro-imidazolés
-Métronidazole
+Nifurzide</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Dérivé nitrés</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Nitro-imidazolés</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Métronidazole
 Ornidazole
 Tinidazole</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Classement_des_antibiotiques</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>Quinoléines</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
         <is>
           <t>Nitroxoline
 Tilbroquinol+Tiliquinol</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Classement_des_antibiotiques</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_des_antibiotiques</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>Autres antibiotiques</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
         <is>
           <t>Acide fusidique
 Fosfomycine
